--- a/abtech/timeSheet-Stanley-Kenneth.xlsx
+++ b/abtech/timeSheet-Stanley-Kenneth.xlsx
@@ -5,10 +5,10 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\visualpartsdb.com\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\visualpartsdb.com\abtech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249D10FB-89AE-4493-A342-99A8B7256C88}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347D80F5-949D-4E80-8602-A763A47F6DE5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3855" yWindow="615" windowWidth="21600" windowHeight="14505" tabRatio="772" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="72">
   <si>
     <t>Weekley Total</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -300,6 +300,9 @@
   </si>
   <si>
     <t xml:space="preserve">Started one of my UDEMY PHP OOP/MVC classes. After reviewing a couple professional PHP developers code, I realized that I am not using all the tools that I could be. </t>
+  </si>
+  <si>
+    <t>Installed PHPDocumentor. Corrected comments from the Documentor reports.</t>
   </si>
 </sst>
 </file>
@@ -1562,10 +1565,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1676,8 +1679,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D7" s="8"/>
+    <row r="7" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>42103</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D8" s="8"/>
@@ -1689,33 +1706,21 @@
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D11" s="8"/>
+      <c r="D11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f>SUM(E2:E10)</f>
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D12" s="8"/>
-    </row>
-    <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D14" s="8"/>
-    </row>
-    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D15" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <f>SUM(E2:E14)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D16" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E16">
-        <f>E15+'Week 12'!E21</f>
-        <v>240</v>
+      <c r="E12">
+        <f>E11+'Week 12'!E21</f>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -1779,8 +1784,8 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <f>E20+'Week 13'!E16</f>
-        <v>240</v>
+        <f>E20+'Week 13'!E12</f>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -1845,7 +1850,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 14'!E21</f>
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -1910,7 +1915,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 14'!E21</f>
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/abtech/timeSheet-Stanley-Kenneth.xlsx
+++ b/abtech/timeSheet-Stanley-Kenneth.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\visualpartsdb.com\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\visualpartsdb.com\abtech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388D73E7-C131-4367-A6E3-C48A1BA08A3A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B037CE45-B8DD-455D-AF5B-C8B250A4EE13}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="615" windowWidth="21600" windowHeight="14505" tabRatio="772" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2115" yWindow="855" windowWidth="21600" windowHeight="14505" tabRatio="922" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="76">
   <si>
     <t>Weekley Total</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -303,6 +303,18 @@
   </si>
   <si>
     <t>Started incorperating Amazon product links. Setup new table for ads with sku_id as fkey. Placed a new grid box for banner placement.</t>
+  </si>
+  <si>
+    <t>CSS bug tweaks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Created a new method for searching. If the part number is not found a new method is called to search by description. If part number is found then it will send the user to the search.php page. If part number is not found it will send the user to desc_search.php.The results can be overwhelming. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Installed dataTables to help with pagination and sorting tables. Works perfect on local machine. In production I'm getting mixed content errors. </t>
+  </si>
+  <si>
+    <t>dataTables has too many bugs to work through currently. I uninstalled and went back to standard tables. I will resolve this after the semester. May have to created my own javaScript class to handle what I need.</t>
   </si>
 </sst>
 </file>
@@ -1567,7 +1579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A8" sqref="A8:XFD10"/>
     </sheetView>
   </sheetViews>
@@ -1735,10 +1747,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1764,22 +1776,93 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D20" s="4" t="s">
+    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>42103</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>42105</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>42108</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>42110</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D6" s="8"/>
+    </row>
+    <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E20">
-        <f>SUM(E2:E19)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D21" s="4" t="s">
+      <c r="E11">
+        <f>SUM(E2:E10)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D12" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E21">
-        <f>E20+'Week 13'!E10</f>
-        <v>242</v>
+      <c r="E12">
+        <f>E11+'Week 13'!E10</f>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -1843,8 +1926,8 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <f>E20+'Week 14'!E21</f>
-        <v>242</v>
+        <f>E20+'Week 14'!E12</f>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -1908,8 +1991,8 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <f>E20+'Week 14'!E21</f>
-        <v>242</v>
+        <f>E20+'Week 14'!E12</f>
+        <v>248</v>
       </c>
     </row>
   </sheetData>

--- a/abtech/timeSheet-Stanley-Kenneth.xlsx
+++ b/abtech/timeSheet-Stanley-Kenneth.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\visualpartsdb.com\abtech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B037CE45-B8DD-455D-AF5B-C8B250A4EE13}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6A2BA8-6AE0-423E-BBD0-71B844776AE2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2115" yWindow="855" windowWidth="21600" windowHeight="14505" tabRatio="922" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="922" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="79">
   <si>
     <t>Weekley Total</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -315,6 +315,15 @@
   </si>
   <si>
     <t>dataTables has too many bugs to work through currently. I uninstalled and went back to standard tables. I will resolve this after the semester. May have to created my own javaScript class to handle what I need.</t>
+  </si>
+  <si>
+    <t>Since I have over 50k urls, I wrote a method to create multiple sitemaps and a sitemap index. I can now create my entire site sitemaps in less than 5 seconds.</t>
+  </si>
+  <si>
+    <t>Helped peers - scheduled tutoring session with 3 people on Friday in the library.</t>
+  </si>
+  <si>
+    <t>Checked all files for validation. Went over the Rubric again to ensure I have met all requirements.</t>
   </si>
 </sst>
 </file>
@@ -1749,7 +1758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+    <sheetView view="pageLayout" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -1885,8 +1894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1912,13 +1921,103 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>42115</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>42116</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>42117</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D17" s="8"/>
+    </row>
     <row r="20" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D20" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E20">
         <f>SUM(E2:E19)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1927,7 +2026,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 14'!E12</f>
-        <v>248</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
